--- a/doc/开发任务清单.xlsx
+++ b/doc/开发任务清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="模块概览" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="服务器-数据表" sheetId="3" r:id="rId3"/>
     <sheet name="RESTful API" sheetId="4" r:id="rId4"/>
     <sheet name="mqtt实时消息接口" sheetId="5" r:id="rId5"/>
+    <sheet name="任务清单" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>RESTful API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +186,186 @@
   </si>
   <si>
     <t>退场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、准备工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库模型及关系定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境搭建及手册整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器初始化数据、数据库恢复准备工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器环境配置：开发、测试、生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、开发阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mqtt实时服务搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP推送服务对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云存储服务对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth登录认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍场实时服务开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境搭建及手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境配置：开发、测试、生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、性能优化及上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为商家流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为拍卖师流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP推送详细功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家发布拍品、信息录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖师发布拍卖会场、信息录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab首页——轮播推荐信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab首页——拍场列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab关注拍卖师——列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍品详细页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖师关注与取消关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab我——用户、商家、拍卖师个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab我——商家、拍卖师拍品管理（包括拍品的各类状态处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab我——拍卖师拍场管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab我——用户订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab我——拍场、订单、拍品报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab我——个人信息编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab我——系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广及分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +394,23 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,21 +435,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -875,7 +1075,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.3984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -884,13 +1084,13 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
@@ -898,8 +1098,8 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
@@ -907,8 +1107,8 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
@@ -916,20 +1116,20 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
@@ -937,43 +1137,43 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
       <c r="D11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
       <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
       <c r="D13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
@@ -981,8 +1181,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -991,15 +1191,15 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
       <c r="D18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -1008,20 +1208,20 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1042,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
@@ -1086,7 +1286,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1183,4 +1383,233 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>